--- a/Simulation_Result/Resultados_Simulacao_2.xlsx
+++ b/Simulation_Result/Resultados_Simulacao_2.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -512,13 +512,13 @@
         <v>750156.2340000001</v>
       </c>
       <c r="D3" t="n">
-        <v>290</v>
+        <v>187</v>
       </c>
       <c r="E3" t="n">
-        <v>290</v>
+        <v>187</v>
       </c>
       <c r="F3" t="n">
-        <v>3.333333</v>
+        <v>37.666667</v>
       </c>
     </row>
     <row r="4">
@@ -532,13 +532,13 @@
         <v>771589.269</v>
       </c>
       <c r="D4" t="n">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="E4" t="n">
-        <v>295</v>
+        <v>219</v>
       </c>
       <c r="F4" t="n">
-        <v>1.666667</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5">
@@ -552,13 +552,13 @@
         <v>793022.304</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="E5" t="n">
-        <v>295</v>
+        <v>242</v>
       </c>
       <c r="F5" t="n">
-        <v>1.666667</v>
+        <v>19.333333</v>
       </c>
     </row>
     <row r="6">
@@ -572,13 +572,13 @@
         <v>814455.34</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E6" t="n">
-        <v>295</v>
+        <v>257</v>
       </c>
       <c r="F6" t="n">
-        <v>1.666667</v>
+        <v>14.333333</v>
       </c>
     </row>
     <row r="7">
@@ -592,13 +592,13 @@
         <v>835888.375</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E7" t="n">
-        <v>295</v>
+        <v>274</v>
       </c>
       <c r="F7" t="n">
-        <v>1.666667</v>
+        <v>8.666667</v>
       </c>
     </row>
     <row r="8">
@@ -612,13 +612,13 @@
         <v>857321.41</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E8" t="n">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="F8" t="n">
-        <v>1.666667</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -632,13 +632,13 @@
         <v>878754.4449999999</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E9" t="n">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F9" t="n">
-        <v>1.666667</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -652,13 +652,13 @@
         <v>900187.481</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E10" t="n">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F10" t="n">
-        <v>1.666667</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -672,13 +672,13 @@
         <v>921620.5159999999</v>
       </c>
       <c r="D11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>1.666667</v>
       </c>
     </row>
     <row r="12">
@@ -695,9 +695,69 @@
         <v>3</v>
       </c>
       <c r="E12" t="n">
+        <v>298</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.666667</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>45</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="C13" t="n">
+        <v>964486.586</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="n">
+        <v>299</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.333333</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>46</v>
+      </c>
+      <c r="B14" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="C14" t="n">
+        <v>985919.622</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>299</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.333333</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>47</v>
+      </c>
+      <c r="B15" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1007352.66</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="n">
         <v>300</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -744,10 +804,10 @@
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.733</v>
+        <v>1.785</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>1.74558961</v>
+        <v>1.79162073</v>
       </c>
     </row>
     <row r="3">
@@ -757,10 +817,10 @@
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>0.00307959866</v>
+        <v>0.0107692308</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>0.00278847214</v>
+        <v>0.00999541468</v>
       </c>
     </row>
     <row r="4">
@@ -770,10 +830,10 @@
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>0.0554941318</v>
+        <v>0.103774904</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>0.0528059858</v>
+        <v>0.0999770708</v>
       </c>
     </row>
     <row r="6">
@@ -835,13 +895,13 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>1.758</v>
+        <v>1.81</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>0.003069333333333335</v>
+        <v>0.01073333333333333</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>0.05540156435817796</v>
+        <v>0.1036018017861337</v>
       </c>
       <c r="D7" s="3" t="n">
         <v>1.75</v>
@@ -853,16 +913,16 @@
         <v>300</v>
       </c>
       <c r="G7" s="3" t="n">
-        <v>0.03151397289998746</v>
+        <v>0.0572385645227258</v>
       </c>
       <c r="H7" s="3" t="n">
-        <v>7.44401503767283</v>
+        <v>2.128611148730776</v>
       </c>
       <c r="I7" s="3" t="n">
-        <v>54.22909289772578</v>
+        <v>4.833494078160602</v>
       </c>
       <c r="J7" s="3" t="n">
-        <v>-0.05905161594087249</v>
+        <v>-1.47393915444645</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -889,7 +949,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.733</v>
+        <v>1.785</v>
       </c>
     </row>
     <row r="11">
@@ -899,7 +959,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.74558961</v>
+        <v>1.79162073</v>
       </c>
     </row>
     <row r="12">
@@ -909,7 +969,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.00307959866</v>
+        <v>0.0107692308</v>
       </c>
     </row>
     <row r="13">
@@ -919,7 +979,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.00278847214</v>
+        <v>0.00999541468</v>
       </c>
     </row>
     <row r="14">
@@ -929,7 +989,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.0554941318</v>
+        <v>0.103774904</v>
       </c>
     </row>
     <row r="15">
@@ -939,7 +999,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0528059858</v>
+        <v>0.0999770708</v>
       </c>
     </row>
     <row r="16">
@@ -949,7 +1009,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.758</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="17">
@@ -959,7 +1019,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.003069333333333335</v>
+        <v>0.01073333333333333</v>
       </c>
     </row>
     <row r="18">
@@ -969,7 +1029,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.05540156435817796</v>
+        <v>0.1036018017861337</v>
       </c>
     </row>
     <row r="19">
@@ -1009,7 +1069,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.03151397289998746</v>
+        <v>0.0572385645227258</v>
       </c>
     </row>
     <row r="23">
@@ -1019,7 +1079,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>7.44401503767283</v>
+        <v>2.128611148730776</v>
       </c>
     </row>
     <row r="24">
@@ -1029,7 +1089,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>54.22909289772578</v>
+        <v>4.833494078160602</v>
       </c>
     </row>
     <row r="25">
@@ -1039,7 +1099,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.05905161594087249</v>
+        <v>-1.47393915444645</v>
       </c>
     </row>
     <row r="26">
